--- a/xlsx/公司_intext.xlsx
+++ b/xlsx/公司_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%94%A2</t>
   </si>
   <si>
-    <t>生產</t>
+    <t>生产</t>
   </si>
   <si>
     <t>政策_政策_计划_公司</t>
@@ -35,19 +35,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>貿易</t>
+    <t>贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%8D%E5%8B%99</t>
   </si>
   <si>
-    <t>服務</t>
+    <t>服务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%BB%BA%E7%B8%BD%E7%9D%A3</t>
   </si>
   <si>
-    <t>福建總督</t>
+    <t>福建总督</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E7%86%99</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%84%AD%E6%88%90%E5%8A%9F</t>
   </si>
   <si>
-    <t>鄭成功</t>
+    <t>郑成功</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E9%84%AD</t>
   </si>
   <si>
-    <t>明鄭</t>
+    <t>明郑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E4%B8%9C%E5%8D%B0%E5%BA%A6%E5%85%AC%E5%8F%B8</t>
@@ -77,19 +77,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E7%B6%B4</t>
   </si>
   <si>
-    <t>前綴</t>
+    <t>前缀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%A9%E5%8D%97</t>
   </si>
   <si>
-    <t>閩南</t>
+    <t>闽南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E5%9C%B0%E4%BC%9A</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E8%8A%B3%E4%BC%AF</t>
   </si>
   <si>
-    <t>羅芳伯</t>
+    <t>罗芳伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E7%B8%A3</t>
   </si>
   <si>
-    <t>梅縣</t>
+    <t>梅县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E5%AE%B6</t>
@@ -125,19 +125,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A9%86%E7%BE%85%E6%B4%B2</t>
   </si>
   <si>
-    <t>婆羅洲</t>
+    <t>婆罗洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%AD%E8%8A%B3%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>蘭芳公司</t>
+    <t>兰芳公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>總統</t>
+    <t>总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
@@ -167,13 +167,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E8%88%88%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>義興公司</t>
+    <t>义兴公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E5%A4%A9%E5%9C%8B</t>
   </si>
   <si>
-    <t>太平天國</t>
+    <t>太平天国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7</t>
@@ -185,37 +185,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%88%80%E6%9C%83</t>
   </si>
   <si>
-    <t>小刀會</t>
+    <t>小刀会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/19%E4%B8%96%E7%B4%80</t>
   </si>
   <si>
-    <t>19世紀</t>
+    <t>19世纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>漢語</t>
+    <t>汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>國民政府</t>
+    <t>国民政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%85%AC%E5%8F%B8%E6%A2%9D%E4%BE%8B</t>
   </si>
   <si>
-    <t>香港公司條例</t>
+    <t>香港公司条例</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%99%90%E8%B2%AC%E4%BB%BB%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>有限責任公司</t>
+    <t>有限责任公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E4%BB%BD%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
@@ -263,13 +263,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>無限公司</t>
+    <t>无限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E5%90%88%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>兩合公司</t>
+    <t>两合公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%99%90%E5%90%88%E4%BC%99</t>
@@ -293,49 +293,49 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8F%B8%E8%A8%BB%E5%86%8A%E8%99%95</t>
   </si>
   <si>
-    <t>公司註冊處</t>
+    <t>公司注册处</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A0%E5%82%B5</t>
   </si>
   <si>
-    <t>負債</t>
+    <t>负债</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E7%9B%A4</t>
   </si>
   <si>
-    <t>清盤</t>
+    <t>清盘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E6%9D%B1</t>
   </si>
   <si>
-    <t>股東</t>
+    <t>股东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E5%A2%83%E4%BA%8B%E5%8B%99%E8%99%95</t>
   </si>
   <si>
-    <t>入境事務處</t>
+    <t>入境事务处</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B0%BD%E8%AD%89</t>
   </si>
   <si>
-    <t>簽證</t>
+    <t>签证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%BE%97%E7%A8%85</t>
   </si>
   <si>
-    <t>利得稅</t>
+    <t>利得税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E8%8A%B1%E7%A8%85</t>
   </si>
   <si>
-    <t>印花稅</t>
+    <t>印花税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E6%9C%9F%E4%BB%98%E6%AC%BE</t>
@@ -347,13 +347,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BA%E5%AE%9A%E8%B3%87%E7%94%A2</t>
   </si>
   <si>
-    <t>固定資產</t>
+    <t>固定资产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%98%E8%88%8A</t>
   </si>
   <si>
-    <t>折舊</t>
+    <t>折旧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8F%B7</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%9C%98%E9%AB%94</t>
   </si>
   <si>
-    <t>社會團體</t>
+    <t>社会团体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8F%B8%E6%B3%95</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%B3%87%E4%BC%81%E6%A5%AD</t>
   </si>
   <si>
-    <t>三資企業</t>
+    <t>三资企业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E5%95%86%E6%8A%95%E8%B5%84%E4%BC%81%E4%B8%9A</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%96%E5%90%88%E8%B3%87%E4%BC%81%E6%A5%AD</t>
   </si>
   <si>
-    <t>中外合資企業</t>
+    <t>中外合资企业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%96%E5%90%88%E4%BD%9C%E4%BC%81%E4%B8%9A</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%87%9F%E4%BC%81%E6%A5%AD</t>
   </si>
   <si>
-    <t>國營企業</t>
+    <t>国营企业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E4%BD%93%E4%BC%81%E4%B8%9A</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E9%AB%94%E6%88%B6</t>
   </si>
   <si>
-    <t>個體戶</t>
+    <t>个体户</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E4%BC%99%E4%BC%81%E4%B8%9A</t>
@@ -437,31 +437,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E6%A5%AD</t>
   </si>
   <si>
-    <t>企業</t>
+    <t>企业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%9C%98%E6%B3%95%E4%BA%BA</t>
   </si>
   <si>
-    <t>財團法人</t>
+    <t>财团法人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%89%9B</t>
   </si>
   <si>
-    <t>鉛</t>
+    <t>铅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%9C%A8</t>
   </si>
   <si>
-    <t>蘇木</t>
+    <t>苏木</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB</t>
   </si>
   <si>
-    <t>錫</t>
+    <t>锡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%B3%E9%A6%99</t>
@@ -473,25 +473,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>董事長</t>
+    <t>董事长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E8%91%A3%E4%BA%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>副董事長</t>
+    <t>副董事长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E6%9D%B1%E5%A4%A7%E6%9C%83</t>
   </si>
   <si>
-    <t>股東大會</t>
+    <t>股东大会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>董事會</t>
+    <t>董事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B</t>
@@ -509,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E5%9F%B7%E8%A1%8C%E8%91%A3%E4%BA%8B</t>
   </si>
   <si>
-    <t>非執行董事</t>
+    <t>非执行董事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E7%AB%8B%E8%91%A3%E4%BA%8B</t>
@@ -521,25 +521,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A3%E5%AF%9F%E4%BA%BA</t>
   </si>
   <si>
-    <t>監察人</t>
+    <t>监察人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E8%A3%81</t>
   </si>
   <si>
-    <t>總裁</t>
+    <t>总裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%B8%BD%E8%A3%81</t>
   </si>
   <si>
-    <t>副總裁</t>
+    <t>副总裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B6%93%E7%90%86</t>
   </si>
   <si>
-    <t>總經理</t>
+    <t>总经理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E4%BA%8B%E4%BC%9A</t>
@@ -557,31 +557,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E4%BA%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>理事長</t>
+    <t>理事长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8F%B8%E7%A7%98%E6%9B%B8</t>
   </si>
   <si>
-    <t>公司秘書</t>
+    <t>公司秘书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>律師</t>
+    <t>律师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>工會</t>
+    <t>工会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E7%89%8C%E9%95%B7</t>
   </si>
   <si>
-    <t>品牌長</t>
+    <t>品牌长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B8%AD%E6%89%A7%E8%A1%8C%E5%AE%98</t>
@@ -593,13 +593,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%8B%99%E9%95%B7</t>
   </si>
   <si>
-    <t>財務長</t>
+    <t>财务长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>資訊總監</t>
+    <t>资讯总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%85%A8%E4%B8%BB%E7%AE%A1</t>
@@ -611,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7%E9%95%B7</t>
   </si>
   <si>
-    <t>行銷長</t>
+    <t>行销长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B8%AD%E8%BF%90%E8%90%A5%E5%AE%98</t>
@@ -635,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%84%8F%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>創意總監</t>
+    <t>创意总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B8%AD%E6%8A%80%E6%9C%AF%E5%AE%98</t>
@@ -665,13 +665,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A9%E8%A8%88%E9%83%A8</t>
   </si>
   <si>
-    <t>審計部</t>
+    <t>审计部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -683,7 +683,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
